--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.27048243297979</v>
+        <v>2.536023666666666</v>
       </c>
       <c r="H2">
-        <v>2.27048243297979</v>
+        <v>7.608070999999999</v>
       </c>
       <c r="I2">
-        <v>0.02626973647156503</v>
+        <v>0.02556389501525096</v>
       </c>
       <c r="J2">
-        <v>0.02626973647156503</v>
+        <v>0.02556389501525096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.1490928851155</v>
+        <v>29.57110033333333</v>
       </c>
       <c r="N2">
-        <v>26.1490928851155</v>
+        <v>88.713301</v>
       </c>
       <c r="O2">
-        <v>0.5161752668380152</v>
+        <v>0.5311523066901919</v>
       </c>
       <c r="P2">
-        <v>0.5161752668380152</v>
+        <v>0.5311523066901919</v>
       </c>
       <c r="Q2">
-        <v>59.37105603401156</v>
+        <v>74.99301029470789</v>
       </c>
       <c r="R2">
-        <v>59.37105603401156</v>
+        <v>674.9370926523709</v>
       </c>
       <c r="S2">
-        <v>0.01355978823297442</v>
+        <v>0.01357832180533644</v>
       </c>
       <c r="T2">
-        <v>0.01355978823297442</v>
+        <v>0.01357832180533645</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.27048243297979</v>
+        <v>2.536023666666666</v>
       </c>
       <c r="H3">
-        <v>2.27048243297979</v>
+        <v>7.608070999999999</v>
       </c>
       <c r="I3">
-        <v>0.02626973647156503</v>
+        <v>0.02556389501525096</v>
       </c>
       <c r="J3">
-        <v>0.02626973647156503</v>
+        <v>0.02556389501525096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.0935976295608</v>
+        <v>12.180337</v>
       </c>
       <c r="N3">
-        <v>12.0935976295608</v>
+        <v>36.541011</v>
       </c>
       <c r="O3">
-        <v>0.2387239974593314</v>
+        <v>0.2187816490048282</v>
       </c>
       <c r="P3">
-        <v>0.2387239974593314</v>
+        <v>0.2187816490048282</v>
       </c>
       <c r="Q3">
-        <v>27.45830096944383</v>
+        <v>30.88962289997567</v>
       </c>
       <c r="R3">
-        <v>27.45830096944383</v>
+        <v>278.006606099781</v>
       </c>
       <c r="S3">
-        <v>0.006271216502695194</v>
+        <v>0.005592911106422913</v>
       </c>
       <c r="T3">
-        <v>0.006271216502695194</v>
+        <v>0.005592911106422914</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.27048243297979</v>
+        <v>2.536023666666666</v>
       </c>
       <c r="H4">
-        <v>2.27048243297979</v>
+        <v>7.608070999999999</v>
       </c>
       <c r="I4">
-        <v>0.02626973647156503</v>
+        <v>0.02556389501525096</v>
       </c>
       <c r="J4">
-        <v>0.02626973647156503</v>
+        <v>0.02556389501525096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.4166389129027</v>
+        <v>13.92204833333333</v>
       </c>
       <c r="N4">
-        <v>12.4166389129027</v>
+        <v>41.76614499999999</v>
       </c>
       <c r="O4">
-        <v>0.2451007357026536</v>
+        <v>0.2500660443049799</v>
       </c>
       <c r="P4">
-        <v>0.2451007357026536</v>
+        <v>0.2500660443049799</v>
       </c>
       <c r="Q4">
-        <v>28.19176052839886</v>
+        <v>35.30664406181054</v>
       </c>
       <c r="R4">
-        <v>28.19176052839886</v>
+        <v>317.7597965562949</v>
       </c>
       <c r="S4">
-        <v>0.006438731735895418</v>
+        <v>0.006392662103491602</v>
       </c>
       <c r="T4">
-        <v>0.006438731735895418</v>
+        <v>0.006392662103491603</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.9798555270723</v>
+        <v>75.11538433333334</v>
       </c>
       <c r="H5">
-        <v>72.9798555270723</v>
+        <v>225.346153</v>
       </c>
       <c r="I5">
-        <v>0.8443851159477976</v>
+        <v>0.7571860721834327</v>
       </c>
       <c r="J5">
-        <v>0.8443851159477976</v>
+        <v>0.7571860721834328</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.1490928851155</v>
+        <v>29.57110033333333</v>
       </c>
       <c r="N5">
-        <v>26.1490928851155</v>
+        <v>88.713301</v>
       </c>
       <c r="O5">
-        <v>0.5161752668380152</v>
+        <v>0.5311523066901919</v>
       </c>
       <c r="P5">
-        <v>0.5161752668380152</v>
+        <v>0.5311523066901919</v>
       </c>
       <c r="Q5">
-        <v>1908.357020919723</v>
+        <v>2221.244566697895</v>
       </c>
       <c r="R5">
-        <v>1908.357020919723</v>
+        <v>19991.20110028105</v>
       </c>
       <c r="S5">
-        <v>0.4358507125384029</v>
+        <v>0.4021811288339164</v>
       </c>
       <c r="T5">
-        <v>0.4358507125384029</v>
+        <v>0.4021811288339164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>72.9798555270723</v>
+        <v>75.11538433333334</v>
       </c>
       <c r="H6">
-        <v>72.9798555270723</v>
+        <v>225.346153</v>
       </c>
       <c r="I6">
-        <v>0.8443851159477976</v>
+        <v>0.7571860721834327</v>
       </c>
       <c r="J6">
-        <v>0.8443851159477976</v>
+        <v>0.7571860721834328</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.0935976295608</v>
+        <v>12.180337</v>
       </c>
       <c r="N6">
-        <v>12.0935976295608</v>
+        <v>36.541011</v>
       </c>
       <c r="O6">
-        <v>0.2387239974593314</v>
+        <v>0.2187816490048282</v>
       </c>
       <c r="P6">
-        <v>0.2387239974593314</v>
+        <v>0.2187816490048282</v>
       </c>
       <c r="Q6">
-        <v>882.5890078078913</v>
+        <v>914.9306950645205</v>
       </c>
       <c r="R6">
-        <v>882.5890078078913</v>
+        <v>8234.376255580684</v>
       </c>
       <c r="S6">
-        <v>0.2015749902742193</v>
+        <v>0.1656584174757803</v>
       </c>
       <c r="T6">
-        <v>0.2015749902742193</v>
+        <v>0.1656584174757803</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>72.9798555270723</v>
+        <v>75.11538433333334</v>
       </c>
       <c r="H7">
-        <v>72.9798555270723</v>
+        <v>225.346153</v>
       </c>
       <c r="I7">
-        <v>0.8443851159477976</v>
+        <v>0.7571860721834327</v>
       </c>
       <c r="J7">
-        <v>0.8443851159477976</v>
+        <v>0.7571860721834328</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.4166389129027</v>
+        <v>13.92204833333333</v>
       </c>
       <c r="N7">
-        <v>12.4166389129027</v>
+        <v>41.76614499999999</v>
       </c>
       <c r="O7">
-        <v>0.2451007357026536</v>
+        <v>0.2500660443049799</v>
       </c>
       <c r="P7">
-        <v>0.2451007357026536</v>
+        <v>0.2500660443049799</v>
       </c>
       <c r="Q7">
-        <v>906.1645139954632</v>
+        <v>1045.760011265576</v>
       </c>
       <c r="R7">
-        <v>906.1645139954632</v>
+        <v>9411.840101390184</v>
       </c>
       <c r="S7">
-        <v>0.2069594131351756</v>
+        <v>0.189346525873736</v>
       </c>
       <c r="T7">
-        <v>0.2069594131351756</v>
+        <v>0.189346525873736</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.1792474846825</v>
+        <v>21.551928</v>
       </c>
       <c r="H8">
-        <v>11.1792474846825</v>
+        <v>64.655784</v>
       </c>
       <c r="I8">
-        <v>0.1293451475806373</v>
+        <v>0.2172500328013163</v>
       </c>
       <c r="J8">
-        <v>0.1293451475806373</v>
+        <v>0.2172500328013163</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.1490928851155</v>
+        <v>29.57110033333333</v>
       </c>
       <c r="N8">
-        <v>26.1490928851155</v>
+        <v>88.713301</v>
       </c>
       <c r="O8">
-        <v>0.5161752668380152</v>
+        <v>0.5311523066901919</v>
       </c>
       <c r="P8">
-        <v>0.5161752668380152</v>
+        <v>0.5311523066901919</v>
       </c>
       <c r="Q8">
-        <v>292.3271808626565</v>
+        <v>637.314225264776</v>
       </c>
       <c r="R8">
-        <v>292.3271808626565</v>
+        <v>5735.828027382984</v>
       </c>
       <c r="S8">
-        <v>0.06676476606663793</v>
+        <v>0.115392856050939</v>
       </c>
       <c r="T8">
-        <v>0.06676476606663793</v>
+        <v>0.115392856050939</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.1792474846825</v>
+        <v>21.551928</v>
       </c>
       <c r="H9">
-        <v>11.1792474846825</v>
+        <v>64.655784</v>
       </c>
       <c r="I9">
-        <v>0.1293451475806373</v>
+        <v>0.2172500328013163</v>
       </c>
       <c r="J9">
-        <v>0.1293451475806373</v>
+        <v>0.2172500328013163</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.0935976295608</v>
+        <v>12.180337</v>
       </c>
       <c r="N9">
-        <v>12.0935976295608</v>
+        <v>36.541011</v>
       </c>
       <c r="O9">
-        <v>0.2387239974593314</v>
+        <v>0.2187816490048282</v>
       </c>
       <c r="P9">
-        <v>0.2387239974593314</v>
+        <v>0.2187816490048282</v>
       </c>
       <c r="Q9">
-        <v>135.1973208810298</v>
+        <v>262.5097460397361</v>
       </c>
       <c r="R9">
-        <v>135.1973208810298</v>
+        <v>2362.587714357624</v>
       </c>
       <c r="S9">
-        <v>0.03087779068241691</v>
+        <v>0.04753032042262499</v>
       </c>
       <c r="T9">
-        <v>0.03087779068241691</v>
+        <v>0.04753032042262499</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.1792474846825</v>
+        <v>21.551928</v>
       </c>
       <c r="H10">
-        <v>11.1792474846825</v>
+        <v>64.655784</v>
       </c>
       <c r="I10">
-        <v>0.1293451475806373</v>
+        <v>0.2172500328013163</v>
       </c>
       <c r="J10">
-        <v>0.1293451475806373</v>
+        <v>0.2172500328013163</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.4166389129027</v>
+        <v>13.92204833333333</v>
       </c>
       <c r="N10">
-        <v>12.4166389129027</v>
+        <v>41.76614499999999</v>
       </c>
       <c r="O10">
-        <v>0.2451007357026536</v>
+        <v>0.2500660443049799</v>
       </c>
       <c r="P10">
-        <v>0.2451007357026536</v>
+        <v>0.2500660443049799</v>
       </c>
       <c r="Q10">
-        <v>138.8086793352784</v>
+        <v>300.0469832925199</v>
       </c>
       <c r="R10">
-        <v>138.8086793352784</v>
+        <v>2700.42284963268</v>
       </c>
       <c r="S10">
-        <v>0.03170259083158251</v>
+        <v>0.0543268563277523</v>
       </c>
       <c r="T10">
-        <v>0.03170259083158251</v>
+        <v>0.0543268563277523</v>
       </c>
     </row>
   </sheetData>
